--- a/app/data/tests/mozzarella_plan_2.xlsx
+++ b/app/data/tests/mozzarella_plan_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="718">
   <si>
     <t xml:space="preserve">Отчет от</t>
   </si>
@@ -2200,7 +2200,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2275,11 +2275,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Cambria"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2373,7 +2368,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2550,10 +2545,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -44477,7 +44468,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>694</v>
       </c>
     </row>
@@ -46355,7 +46346,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H39" activeCellId="0" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47860,57 +47851,57 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="str">
+      <c r="A20" s="38" t="n">
         <f aca="true">IF(O20="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R20)))))</f>
-        <v/>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="J20" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="C20" s="38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="I20" s="38" t="n">
+        <v>317</v>
+      </c>
+      <c r="J20" s="26" t="str">
         <f aca="true">IF(M20="", IF(O20="","",X20+(INDIRECT("S" &amp; ROW() - 1) - S20)),IF(O20="", "", INDIRECT("S" &amp; ROW() - 1) - S20))</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="M20" s="37" t="n">
-        <v>8000</v>
-      </c>
-      <c r="N20" s="36" t="n">
+        <v/>
+      </c>
+      <c r="K20" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36" t="str">
         <f aca="false">IF(M20="", IF(X20=0, "", X20), IF(V20 = "", "", IF(V20/U20 = 0, "", V20/U20)))</f>
-        <v>1000</v>
-      </c>
-      <c r="O20" s="34" t="s">
-        <v>694</v>
+        <v/>
       </c>
       <c r="P20" s="1" t="n">
         <f aca="false">IF(O20 = "-", -W20,I20)</f>
-        <v>-1000</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="1" t="n">
         <f aca="true">IF(O20 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P20)))), 0)</f>
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1" t="n">
         <f aca="false">IF(O20="-",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="n">
         <f aca="true">IF(Q20 = 0, INDIRECT("S" &amp; ROW() - 1), Q20)</f>
@@ -47918,7 +47909,7 @@
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(H20="","",VLOOKUP(H20,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>-</v>
+        <v>3.3, Сакко</v>
       </c>
       <c r="U20" s="1" t="n">
         <f aca="false">8000/1000</f>
@@ -47926,21 +47917,21 @@
       </c>
       <c r="V20" s="1" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 0 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),0 *LEN($M20)+1,LEN($M20))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 1 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),1 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 2 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),2 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 3 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),3 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 4 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),4 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 5 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),5 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 6 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),6 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 7 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),7 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 8 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),8 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 9 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),9 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 10 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),10 *LEN($M20)+1,LEN($M20)))))</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1" t="n">
         <f aca="false">IF(V20 = "", "", V20/U20)</f>
-        <v>1000</v>
-      </c>
-      <c r="X20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1" t="str">
         <f aca="true">IF(O20="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S20)/1000, 0), 1) * 1000)</f>
-        <v>1000</v>
+        <v/>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="38" t="n">
         <f aca="true">IF(O21="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R21)))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>667</v>
@@ -47961,10 +47952,10 @@
         <v>692</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I21" s="38" t="n">
-        <v>317</v>
+        <v>683</v>
       </c>
       <c r="J21" s="26" t="str">
         <f aca="true">IF(M21="", IF(O21="","",X21+(INDIRECT("S" &amp; ROW() - 1) - S21)),IF(O21="", "", INDIRECT("S" &amp; ROW() - 1) - S21))</f>
@@ -47980,7 +47971,7 @@
       </c>
       <c r="P21" s="1" t="n">
         <f aca="false">IF(O21 = "-", -W21,I21)</f>
-        <v>317</v>
+        <v>683</v>
       </c>
       <c r="Q21" s="1" t="n">
         <f aca="true">IF(O21 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P21)))), 0)</f>
@@ -48016,65 +48007,65 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="38" t="n">
+      <c r="A22" s="34" t="str">
         <f aca="true">IF(O22="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R22)))))</f>
-        <v>5</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="C22" s="38" t="n">
+        <v/>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="J22" s="26" t="n">
+        <f aca="true">IF(M22="", IF(O22="","",X22+(INDIRECT("S" &amp; ROW() - 1) - S22)),IF(O22="", "", INDIRECT("S" &amp; ROW() - 1) - S22))</f>
+        <v>-1000</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="M22" s="37" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N22" s="36" t="n">
+        <f aca="false">IF(M22="", IF(X22=0, "", X22), IF(V22 = "", "", IF(V22/U22 = 0, "", V22/U22)))</f>
         <v>1000</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>692</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="I22" s="38" t="n">
-        <v>683</v>
-      </c>
-      <c r="J22" s="26" t="str">
-        <f aca="true">IF(M22="", IF(O22="","",X22+(INDIRECT("S" &amp; ROW() - 1) - S22)),IF(O22="", "", INDIRECT("S" &amp; ROW() - 1) - S22))</f>
-        <v/>
-      </c>
-      <c r="K22" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="36" t="str">
-        <f aca="false">IF(M22="", IF(X22=0, "", X22), IF(V22 = "", "", IF(V22/U22 = 0, "", V22/U22)))</f>
-        <v/>
+      <c r="O22" s="34" t="s">
+        <v>694</v>
       </c>
       <c r="P22" s="1" t="n">
         <f aca="false">IF(O22 = "-", -W22,I22)</f>
-        <v>683</v>
+        <v>-1000</v>
       </c>
       <c r="Q22" s="1" t="n">
         <f aca="true">IF(O22 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P22)))), 0)</f>
-        <v>0</v>
+        <v>978</v>
       </c>
       <c r="R22" s="1" t="n">
         <f aca="false">IF(O22="-",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1" t="n">
         <f aca="true">IF(Q22 = 0, INDIRECT("S" &amp; ROW() - 1), Q22)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(H22="","",VLOOKUP(H22,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>3.3, Сакко</v>
+        <v>-</v>
       </c>
       <c r="U22" s="1" t="n">
         <f aca="false">8000/1000</f>
@@ -48082,77 +48073,46 @@
       </c>
       <c r="V22" s="1" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 0 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),0 *LEN($M22)+1,LEN($M22))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 1 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),1 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 2 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),2 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 3 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),3 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 4 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),4 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 5 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),5 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 6 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),6 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 7 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),7 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 8 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),8 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 9 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),9 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 10 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),10 *LEN($M22)+1,LEN($M22)))))</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="W22" s="1" t="n">
         <f aca="false">IF(V22 = "", "", V22/U22)</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="1" t="str">
+        <v>1000</v>
+      </c>
+      <c r="X22" s="1" t="n">
         <f aca="true">IF(O22="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S22)/1000, 0), 1) * 1000)</f>
-        <v/>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="str">
-        <f aca="true">IF(O23="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R23)))))</f>
-        <v/>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="J23" s="26" t="n">
+      <c r="J23" s="26" t="str">
         <f aca="true">IF(M23="", IF(O23="","",X23+(INDIRECT("S" &amp; ROW() - 1) - S23)),IF(O23="", "", INDIRECT("S" &amp; ROW() - 1) - S23))</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="34"/>
-      <c r="M23" s="37" t="n">
-        <v>8000</v>
-      </c>
-      <c r="N23" s="36" t="n">
+        <v/>
+      </c>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36" t="str">
         <f aca="false">IF(M23="", IF(X23=0, "", X23), IF(V23 = "", "", IF(V23/U23 = 0, "", V23/U23)))</f>
-        <v>1000</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>694</v>
+        <v/>
       </c>
       <c r="P23" s="1" t="n">
         <f aca="false">IF(O23 = "-", -W23,I23)</f>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
         <f aca="true">IF(O23 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P23)))), 0)</f>
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1" t="n">
         <f aca="false">IF(O23="-",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
         <f aca="true">IF(Q23 = 0, INDIRECT("S" &amp; ROW() - 1), Q23)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(H23="","",VLOOKUP(H23,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>-</v>
+        <v/>
       </c>
       <c r="U23" s="1" t="n">
         <f aca="false">8000/1000</f>
@@ -48160,15 +48120,15 @@
       </c>
       <c r="V23" s="1" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 0 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),0 *LEN($M23)+1,LEN($M23))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 1 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),1 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 2 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),2 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 3 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),3 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 4 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),4 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 5 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),5 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 6 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),6 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 7 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),7 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 8 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),8 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 9 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),9 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 10 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),10 *LEN($M23)+1,LEN($M23)))))</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1" t="n">
         <f aca="false">IF(V23 = "", "", V23/U23)</f>
-        <v>1000</v>
-      </c>
-      <c r="X23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1" t="str">
         <f aca="true">IF(O23="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S23)/1000, 0), 1) * 1000)</f>
-        <v>1000</v>
+        <v/>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -48195,7 +48155,7 @@
       </c>
       <c r="S24" s="1" t="n">
         <f aca="true">IF(Q24 = 0, INDIRECT("S" &amp; ROW() - 1), Q24)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(H24="","",VLOOKUP(H24,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48242,7 +48202,7 @@
       </c>
       <c r="S25" s="1" t="n">
         <f aca="true">IF(Q25 = 0, INDIRECT("S" &amp; ROW() - 1), Q25)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(H25="","",VLOOKUP(H25,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48289,7 +48249,7 @@
       </c>
       <c r="S26" s="1" t="n">
         <f aca="true">IF(Q26 = 0, INDIRECT("S" &amp; ROW() - 1), Q26)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(H26="","",VLOOKUP(H26,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48336,7 +48296,7 @@
       </c>
       <c r="S27" s="1" t="n">
         <f aca="true">IF(Q27 = 0, INDIRECT("S" &amp; ROW() - 1), Q27)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(H27="","",VLOOKUP(H27,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48383,7 +48343,7 @@
       </c>
       <c r="S28" s="1" t="n">
         <f aca="true">IF(Q28 = 0, INDIRECT("S" &amp; ROW() - 1), Q28)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(H28="","",VLOOKUP(H28,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48430,7 +48390,7 @@
       </c>
       <c r="S29" s="1" t="n">
         <f aca="true">IF(Q29 = 0, INDIRECT("S" &amp; ROW() - 1), Q29)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(H29="","",VLOOKUP(H29,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48477,7 +48437,7 @@
       </c>
       <c r="S30" s="1" t="n">
         <f aca="true">IF(Q30 = 0, INDIRECT("S" &amp; ROW() - 1), Q30)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(H30="","",VLOOKUP(H30,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48524,7 +48484,7 @@
       </c>
       <c r="S31" s="1" t="n">
         <f aca="true">IF(Q31 = 0, INDIRECT("S" &amp; ROW() - 1), Q31)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T31" s="1" t="str">
         <f aca="false">IF(H31="","",VLOOKUP(H31,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48571,7 +48531,7 @@
       </c>
       <c r="S32" s="1" t="n">
         <f aca="true">IF(Q32 = 0, INDIRECT("S" &amp; ROW() - 1), Q32)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T32" s="1" t="str">
         <f aca="false">IF(H32="","",VLOOKUP(H32,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48618,7 +48578,7 @@
       </c>
       <c r="S33" s="1" t="n">
         <f aca="true">IF(Q33 = 0, INDIRECT("S" &amp; ROW() - 1), Q33)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(H33="","",VLOOKUP(H33,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48665,7 +48625,7 @@
       </c>
       <c r="S34" s="1" t="n">
         <f aca="true">IF(Q34 = 0, INDIRECT("S" &amp; ROW() - 1), Q34)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T34" s="1" t="str">
         <f aca="false">IF(H34="","",VLOOKUP(H34,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48712,7 +48672,7 @@
       </c>
       <c r="S35" s="1" t="n">
         <f aca="true">IF(Q35 = 0, INDIRECT("S" &amp; ROW() - 1), Q35)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(H35="","",VLOOKUP(H35,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48759,7 +48719,7 @@
       </c>
       <c r="S36" s="1" t="n">
         <f aca="true">IF(Q36 = 0, INDIRECT("S" &amp; ROW() - 1), Q36)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(H36="","",VLOOKUP(H36,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48806,7 +48766,7 @@
       </c>
       <c r="S37" s="1" t="n">
         <f aca="true">IF(Q37 = 0, INDIRECT("S" &amp; ROW() - 1), Q37)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T37" s="1" t="str">
         <f aca="false">IF(H37="","",VLOOKUP(H37,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48853,7 +48813,7 @@
       </c>
       <c r="S38" s="1" t="n">
         <f aca="true">IF(Q38 = 0, INDIRECT("S" &amp; ROW() - 1), Q38)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T38" s="1" t="str">
         <f aca="false">IF(H38="","",VLOOKUP(H38,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48900,7 +48860,7 @@
       </c>
       <c r="S39" s="1" t="n">
         <f aca="true">IF(Q39 = 0, INDIRECT("S" &amp; ROW() - 1), Q39)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T39" s="1" t="str">
         <f aca="false">IF(H39="","",VLOOKUP(H39,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48947,7 +48907,7 @@
       </c>
       <c r="S40" s="1" t="n">
         <f aca="true">IF(Q40 = 0, INDIRECT("S" &amp; ROW() - 1), Q40)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T40" s="1" t="str">
         <f aca="false">IF(H40="","",VLOOKUP(H40,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48994,7 +48954,7 @@
       </c>
       <c r="S41" s="1" t="n">
         <f aca="true">IF(Q41 = 0, INDIRECT("S" &amp; ROW() - 1), Q41)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T41" s="1" t="str">
         <f aca="false">IF(H41="","",VLOOKUP(H41,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49041,7 +49001,7 @@
       </c>
       <c r="S42" s="1" t="n">
         <f aca="true">IF(Q42 = 0, INDIRECT("S" &amp; ROW() - 1), Q42)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T42" s="1" t="str">
         <f aca="false">IF(H42="","",VLOOKUP(H42,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49088,7 +49048,7 @@
       </c>
       <c r="S43" s="1" t="n">
         <f aca="true">IF(Q43 = 0, INDIRECT("S" &amp; ROW() - 1), Q43)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T43" s="1" t="str">
         <f aca="false">IF(H43="","",VLOOKUP(H43,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49116,7 +49076,7 @@
         <f aca="true">IF(M44="", IF(O44="","",X44+(INDIRECT("S" &amp; ROW() - 1) - S44)),IF(O44="", "", INDIRECT("S" &amp; ROW() - 1) - S44))</f>
         <v/>
       </c>
-      <c r="M44" s="35"/>
+      <c r="M44" s="36"/>
       <c r="N44" s="36" t="str">
         <f aca="false">IF(M44="", IF(X44=0, "", X44), IF(V44 = "", "", IF(V44/U44 = 0, "", V44/U44)))</f>
         <v/>
@@ -49135,7 +49095,7 @@
       </c>
       <c r="S44" s="1" t="n">
         <f aca="true">IF(Q44 = 0, INDIRECT("S" &amp; ROW() - 1), Q44)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T44" s="1" t="str">
         <f aca="false">IF(H44="","",VLOOKUP(H44,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49163,7 +49123,7 @@
         <f aca="true">IF(M45="", IF(O45="","",X45+(INDIRECT("S" &amp; ROW() - 1) - S45)),IF(O45="", "", INDIRECT("S" &amp; ROW() - 1) - S45))</f>
         <v/>
       </c>
-      <c r="M45" s="36"/>
+      <c r="M45" s="35"/>
       <c r="N45" s="36" t="str">
         <f aca="false">IF(M45="", IF(X45=0, "", X45), IF(V45 = "", "", IF(V45/U45 = 0, "", V45/U45)))</f>
         <v/>
@@ -49182,7 +49142,7 @@
       </c>
       <c r="S45" s="1" t="n">
         <f aca="true">IF(Q45 = 0, INDIRECT("S" &amp; ROW() - 1), Q45)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T45" s="1" t="str">
         <f aca="false">IF(H45="","",VLOOKUP(H45,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49229,7 +49189,7 @@
       </c>
       <c r="S46" s="1" t="n">
         <f aca="true">IF(Q46 = 0, INDIRECT("S" &amp; ROW() - 1), Q46)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T46" s="1" t="str">
         <f aca="false">IF(H46="","",VLOOKUP(H46,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49276,7 +49236,7 @@
       </c>
       <c r="S47" s="1" t="n">
         <f aca="true">IF(Q47 = 0, INDIRECT("S" &amp; ROW() - 1), Q47)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T47" s="1" t="str">
         <f aca="false">IF(H47="","",VLOOKUP(H47,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49323,7 +49283,7 @@
       </c>
       <c r="S48" s="1" t="n">
         <f aca="true">IF(Q48 = 0, INDIRECT("S" &amp; ROW() - 1), Q48)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T48" s="1" t="str">
         <f aca="false">IF(H48="","",VLOOKUP(H48,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49370,7 +49330,7 @@
       </c>
       <c r="S49" s="1" t="n">
         <f aca="true">IF(Q49 = 0, INDIRECT("S" &amp; ROW() - 1), Q49)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T49" s="1" t="str">
         <f aca="false">IF(H49="","",VLOOKUP(H49,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49417,7 +49377,7 @@
       </c>
       <c r="S50" s="1" t="n">
         <f aca="true">IF(Q50 = 0, INDIRECT("S" &amp; ROW() - 1), Q50)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T50" s="1" t="str">
         <f aca="false">IF(H50="","",VLOOKUP(H50,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49464,7 +49424,7 @@
       </c>
       <c r="S51" s="1" t="n">
         <f aca="true">IF(Q51 = 0, INDIRECT("S" &amp; ROW() - 1), Q51)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T51" s="1" t="str">
         <f aca="false">IF(H51="","",VLOOKUP(H51,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49511,7 +49471,7 @@
       </c>
       <c r="S52" s="1" t="n">
         <f aca="true">IF(Q52 = 0, INDIRECT("S" &amp; ROW() - 1), Q52)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T52" s="1" t="str">
         <f aca="false">IF(H52="","",VLOOKUP(H52,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49558,7 +49518,7 @@
       </c>
       <c r="S53" s="1" t="n">
         <f aca="true">IF(Q53 = 0, INDIRECT("S" &amp; ROW() - 1), Q53)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T53" s="1" t="str">
         <f aca="false">IF(H53="","",VLOOKUP(H53,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49605,7 +49565,7 @@
       </c>
       <c r="S54" s="1" t="n">
         <f aca="true">IF(Q54 = 0, INDIRECT("S" &amp; ROW() - 1), Q54)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T54" s="1" t="str">
         <f aca="false">IF(H54="","",VLOOKUP(H54,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49652,7 +49612,7 @@
       </c>
       <c r="S55" s="1" t="n">
         <f aca="true">IF(Q55 = 0, INDIRECT("S" &amp; ROW() - 1), Q55)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T55" s="1" t="str">
         <f aca="false">IF(H55="","",VLOOKUP(H55,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49699,7 +49659,7 @@
       </c>
       <c r="S56" s="1" t="n">
         <f aca="true">IF(Q56 = 0, INDIRECT("S" &amp; ROW() - 1), Q56)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T56" s="1" t="str">
         <f aca="false">IF(H56="","",VLOOKUP(H56,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49746,7 +49706,7 @@
       </c>
       <c r="S57" s="1" t="n">
         <f aca="true">IF(Q57 = 0, INDIRECT("S" &amp; ROW() - 1), Q57)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T57" s="1" t="str">
         <f aca="false">IF(H57="","",VLOOKUP(H57,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49793,7 +49753,7 @@
       </c>
       <c r="S58" s="1" t="n">
         <f aca="true">IF(Q58 = 0, INDIRECT("S" &amp; ROW() - 1), Q58)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T58" s="1" t="str">
         <f aca="false">IF(H58="","",VLOOKUP(H58,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49831,7 +49791,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="1" t="n">
-        <f aca="true">IF(O59 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P59)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P59)))), 0)</f>
+        <f aca="true">IF(O59="-",SUM(INDIRECT(ADDRESS(2,COLUMN(P59))&amp;":"&amp;ADDRESS(ROW(),COLUMN(P59)))),0)</f>
         <v>0</v>
       </c>
       <c r="R59" s="1" t="n">
@@ -49840,7 +49800,7 @@
       </c>
       <c r="S59" s="1" t="n">
         <f aca="true">IF(Q59 = 0, INDIRECT("S" &amp; ROW() - 1), Q59)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T59" s="1" t="str">
         <f aca="false">IF(H59="","",VLOOKUP(H59,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49887,7 +49847,7 @@
       </c>
       <c r="S60" s="1" t="n">
         <f aca="true">IF(Q60 = 0, INDIRECT("S" &amp; ROW() - 1), Q60)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T60" s="1" t="str">
         <f aca="false">IF(H60="","",VLOOKUP(H60,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49934,7 +49894,7 @@
       </c>
       <c r="S61" s="1" t="n">
         <f aca="true">IF(Q61 = 0, INDIRECT("S" &amp; ROW() - 1), Q61)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T61" s="1" t="str">
         <f aca="false">IF(H61="","",VLOOKUP(H61,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49981,7 +49941,7 @@
       </c>
       <c r="S62" s="1" t="n">
         <f aca="true">IF(Q62 = 0, INDIRECT("S" &amp; ROW() - 1), Q62)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T62" s="1" t="str">
         <f aca="false">IF(H62="","",VLOOKUP(H62,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50028,7 +49988,7 @@
       </c>
       <c r="S63" s="1" t="n">
         <f aca="true">IF(Q63 = 0, INDIRECT("S" &amp; ROW() - 1), Q63)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T63" s="1" t="str">
         <f aca="false">IF(H63="","",VLOOKUP(H63,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50075,7 +50035,7 @@
       </c>
       <c r="S64" s="1" t="n">
         <f aca="true">IF(Q64 = 0, INDIRECT("S" &amp; ROW() - 1), Q64)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T64" s="1" t="str">
         <f aca="false">IF(H64="","",VLOOKUP(H64,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50122,7 +50082,7 @@
       </c>
       <c r="S65" s="1" t="n">
         <f aca="true">IF(Q65 = 0, INDIRECT("S" &amp; ROW() - 1), Q65)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T65" s="1" t="str">
         <f aca="false">IF(H65="","",VLOOKUP(H65,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50169,7 +50129,7 @@
       </c>
       <c r="S66" s="1" t="n">
         <f aca="true">IF(Q66 = 0, INDIRECT("S" &amp; ROW() - 1), Q66)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T66" s="1" t="str">
         <f aca="false">IF(H66="","",VLOOKUP(H66,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50216,7 +50176,7 @@
       </c>
       <c r="S67" s="1" t="n">
         <f aca="true">IF(Q67 = 0, INDIRECT("S" &amp; ROW() - 1), Q67)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T67" s="1" t="str">
         <f aca="false">IF(H67="","",VLOOKUP(H67,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50263,7 +50223,7 @@
       </c>
       <c r="S68" s="1" t="n">
         <f aca="true">IF(Q68 = 0, INDIRECT("S" &amp; ROW() - 1), Q68)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T68" s="1" t="str">
         <f aca="false">IF(H68="","",VLOOKUP(H68,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50310,7 +50270,7 @@
       </c>
       <c r="S69" s="1" t="n">
         <f aca="true">IF(Q69 = 0, INDIRECT("S" &amp; ROW() - 1), Q69)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T69" s="1" t="str">
         <f aca="false">IF(H69="","",VLOOKUP(H69,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50357,7 +50317,7 @@
       </c>
       <c r="S70" s="1" t="n">
         <f aca="true">IF(Q70 = 0, INDIRECT("S" &amp; ROW() - 1), Q70)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T70" s="1" t="str">
         <f aca="false">IF(H70="","",VLOOKUP(H70,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50404,7 +50364,7 @@
       </c>
       <c r="S71" s="1" t="n">
         <f aca="true">IF(Q71 = 0, INDIRECT("S" &amp; ROW() - 1), Q71)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T71" s="1" t="str">
         <f aca="false">IF(H71="","",VLOOKUP(H71,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50451,7 +50411,7 @@
       </c>
       <c r="S72" s="1" t="n">
         <f aca="true">IF(Q72 = 0, INDIRECT("S" &amp; ROW() - 1), Q72)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T72" s="1" t="str">
         <f aca="false">IF(H72="","",VLOOKUP(H72,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50498,7 +50458,7 @@
       </c>
       <c r="S73" s="1" t="n">
         <f aca="true">IF(Q73 = 0, INDIRECT("S" &amp; ROW() - 1), Q73)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T73" s="1" t="str">
         <f aca="false">IF(H73="","",VLOOKUP(H73,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50545,7 +50505,7 @@
       </c>
       <c r="S74" s="1" t="n">
         <f aca="true">IF(Q74 = 0, INDIRECT("S" &amp; ROW() - 1), Q74)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T74" s="1" t="str">
         <f aca="false">IF(H74="","",VLOOKUP(H74,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50592,7 +50552,7 @@
       </c>
       <c r="S75" s="1" t="n">
         <f aca="true">IF(Q75 = 0, INDIRECT("S" &amp; ROW() - 1), Q75)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T75" s="1" t="str">
         <f aca="false">IF(H75="","",VLOOKUP(H75,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50639,7 +50599,7 @@
       </c>
       <c r="S76" s="1" t="n">
         <f aca="true">IF(Q76 = 0, INDIRECT("S" &amp; ROW() - 1), Q76)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T76" s="1" t="str">
         <f aca="false">IF(H76="","",VLOOKUP(H76,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50686,7 +50646,7 @@
       </c>
       <c r="S77" s="1" t="n">
         <f aca="true">IF(Q77 = 0, INDIRECT("S" &amp; ROW() - 1), Q77)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T77" s="1" t="str">
         <f aca="false">IF(H77="","",VLOOKUP(H77,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50733,7 +50693,7 @@
       </c>
       <c r="S78" s="1" t="n">
         <f aca="true">IF(Q78 = 0, INDIRECT("S" &amp; ROW() - 1), Q78)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T78" s="1" t="str">
         <f aca="false">IF(H78="","",VLOOKUP(H78,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50780,7 +50740,7 @@
       </c>
       <c r="S79" s="1" t="n">
         <f aca="true">IF(Q79 = 0, INDIRECT("S" &amp; ROW() - 1), Q79)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T79" s="1" t="str">
         <f aca="false">IF(H79="","",VLOOKUP(H79,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50827,7 +50787,7 @@
       </c>
       <c r="S80" s="1" t="n">
         <f aca="true">IF(Q80 = 0, INDIRECT("S" &amp; ROW() - 1), Q80)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T80" s="1" t="str">
         <f aca="false">IF(H80="","",VLOOKUP(H80,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50874,7 +50834,7 @@
       </c>
       <c r="S81" s="1" t="n">
         <f aca="true">IF(Q81 = 0, INDIRECT("S" &amp; ROW() - 1), Q81)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T81" s="1" t="str">
         <f aca="false">IF(H81="","",VLOOKUP(H81,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50921,7 +50881,7 @@
       </c>
       <c r="S82" s="1" t="n">
         <f aca="true">IF(Q82 = 0, INDIRECT("S" &amp; ROW() - 1), Q82)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T82" s="1" t="str">
         <f aca="false">IF(H82="","",VLOOKUP(H82,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50968,7 +50928,7 @@
       </c>
       <c r="S83" s="1" t="n">
         <f aca="true">IF(Q83 = 0, INDIRECT("S" &amp; ROW() - 1), Q83)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T83" s="1" t="str">
         <f aca="false">IF(H83="","",VLOOKUP(H83,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51015,7 +50975,7 @@
       </c>
       <c r="S84" s="1" t="n">
         <f aca="true">IF(Q84 = 0, INDIRECT("S" &amp; ROW() - 1), Q84)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T84" s="1" t="str">
         <f aca="false">IF(H84="","",VLOOKUP(H84,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51053,7 +51013,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="1" t="n">
-        <f aca="true">IF(O85="-",SUM(INDIRECT(ADDRESS(2,COLUMN(P85))&amp;":"&amp;ADDRESS(ROW(),COLUMN(P85)))),0)</f>
+        <f aca="true">IF(O85 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P85)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P85)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R85" s="1" t="n">
@@ -51062,7 +51022,7 @@
       </c>
       <c r="S85" s="1" t="n">
         <f aca="true">IF(Q85 = 0, INDIRECT("S" &amp; ROW() - 1), Q85)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T85" s="1" t="str">
         <f aca="false">IF(H85="","",VLOOKUP(H85,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51109,7 +51069,7 @@
       </c>
       <c r="S86" s="1" t="n">
         <f aca="true">IF(Q86 = 0, INDIRECT("S" &amp; ROW() - 1), Q86)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T86" s="1" t="str">
         <f aca="false">IF(H86="","",VLOOKUP(H86,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51156,7 +51116,7 @@
       </c>
       <c r="S87" s="1" t="n">
         <f aca="true">IF(Q87 = 0, INDIRECT("S" &amp; ROW() - 1), Q87)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T87" s="1" t="str">
         <f aca="false">IF(H87="","",VLOOKUP(H87,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51203,7 +51163,7 @@
       </c>
       <c r="S88" s="1" t="n">
         <f aca="true">IF(Q88 = 0, INDIRECT("S" &amp; ROW() - 1), Q88)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T88" s="1" t="str">
         <f aca="false">IF(H88="","",VLOOKUP(H88,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51250,7 +51210,7 @@
       </c>
       <c r="S89" s="1" t="n">
         <f aca="true">IF(Q89 = 0, INDIRECT("S" &amp; ROW() - 1), Q89)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T89" s="1" t="str">
         <f aca="false">IF(H89="","",VLOOKUP(H89,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51297,7 +51257,7 @@
       </c>
       <c r="S90" s="1" t="n">
         <f aca="true">IF(Q90 = 0, INDIRECT("S" &amp; ROW() - 1), Q90)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T90" s="1" t="str">
         <f aca="false">IF(H90="","",VLOOKUP(H90,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51344,7 +51304,7 @@
       </c>
       <c r="S91" s="1" t="n">
         <f aca="true">IF(Q91 = 0, INDIRECT("S" &amp; ROW() - 1), Q91)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T91" s="1" t="str">
         <f aca="false">IF(H91="","",VLOOKUP(H91,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51391,7 +51351,7 @@
       </c>
       <c r="S92" s="1" t="n">
         <f aca="true">IF(Q92 = 0, INDIRECT("S" &amp; ROW() - 1), Q92)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T92" s="1" t="str">
         <f aca="false">IF(H92="","",VLOOKUP(H92,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51438,7 +51398,7 @@
       </c>
       <c r="S93" s="1" t="n">
         <f aca="true">IF(Q93 = 0, INDIRECT("S" &amp; ROW() - 1), Q93)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T93" s="1" t="str">
         <f aca="false">IF(H93="","",VLOOKUP(H93,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51485,7 +51445,7 @@
       </c>
       <c r="S94" s="1" t="n">
         <f aca="true">IF(Q94 = 0, INDIRECT("S" &amp; ROW() - 1), Q94)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T94" s="1" t="str">
         <f aca="false">IF(H94="","",VLOOKUP(H94,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51532,7 +51492,7 @@
       </c>
       <c r="S95" s="1" t="n">
         <f aca="true">IF(Q95 = 0, INDIRECT("S" &amp; ROW() - 1), Q95)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T95" s="1" t="str">
         <f aca="false">IF(H95="","",VLOOKUP(H95,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51579,7 +51539,7 @@
       </c>
       <c r="S96" s="1" t="n">
         <f aca="true">IF(Q96 = 0, INDIRECT("S" &amp; ROW() - 1), Q96)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T96" s="1" t="str">
         <f aca="false">IF(H96="","",VLOOKUP(H96,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51626,7 +51586,7 @@
       </c>
       <c r="S97" s="1" t="n">
         <f aca="true">IF(Q97 = 0, INDIRECT("S" &amp; ROW() - 1), Q97)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T97" s="1" t="str">
         <f aca="false">IF(H97="","",VLOOKUP(H97,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51673,7 +51633,7 @@
       </c>
       <c r="S98" s="1" t="n">
         <f aca="true">IF(Q98 = 0, INDIRECT("S" &amp; ROW() - 1), Q98)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T98" s="1" t="str">
         <f aca="false">IF(H98="","",VLOOKUP(H98,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51720,7 +51680,7 @@
       </c>
       <c r="S99" s="1" t="n">
         <f aca="true">IF(Q99 = 0, INDIRECT("S" &amp; ROW() - 1), Q99)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T99" s="1" t="str">
         <f aca="false">IF(H99="","",VLOOKUP(H99,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51767,7 +51727,7 @@
       </c>
       <c r="S100" s="1" t="n">
         <f aca="true">IF(Q100 = 0, INDIRECT("S" &amp; ROW() - 1), Q100)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T100" s="1" t="str">
         <f aca="false">IF(H100="","",VLOOKUP(H100,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51814,7 +51774,7 @@
       </c>
       <c r="S101" s="1" t="n">
         <f aca="true">IF(Q101 = 0, INDIRECT("S" &amp; ROW() - 1), Q101)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T101" s="1" t="str">
         <f aca="false">IF(H101="","",VLOOKUP(H101,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51861,7 +51821,7 @@
       </c>
       <c r="S102" s="1" t="n">
         <f aca="true">IF(Q102 = 0, INDIRECT("S" &amp; ROW() - 1), Q102)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T102" s="1" t="str">
         <f aca="false">IF(H102="","",VLOOKUP(H102,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51908,7 +51868,7 @@
       </c>
       <c r="S103" s="1" t="n">
         <f aca="true">IF(Q103 = 0, INDIRECT("S" &amp; ROW() - 1), Q103)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T103" s="1" t="str">
         <f aca="false">IF(H103="","",VLOOKUP(H103,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51955,7 +51915,7 @@
       </c>
       <c r="S104" s="1" t="n">
         <f aca="true">IF(Q104 = 0, INDIRECT("S" &amp; ROW() - 1), Q104)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T104" s="1" t="str">
         <f aca="false">IF(H104="","",VLOOKUP(H104,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52002,7 +51962,7 @@
       </c>
       <c r="S105" s="1" t="n">
         <f aca="true">IF(Q105 = 0, INDIRECT("S" &amp; ROW() - 1), Q105)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T105" s="1" t="str">
         <f aca="false">IF(H105="","",VLOOKUP(H105,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52049,7 +52009,7 @@
       </c>
       <c r="S106" s="1" t="n">
         <f aca="true">IF(Q106 = 0, INDIRECT("S" &amp; ROW() - 1), Q106)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T106" s="1" t="str">
         <f aca="false">IF(H106="","",VLOOKUP(H106,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52096,7 +52056,7 @@
       </c>
       <c r="S107" s="1" t="n">
         <f aca="true">IF(Q107 = 0, INDIRECT("S" &amp; ROW() - 1), Q107)</f>
-        <v>-22</v>
+        <v>978</v>
       </c>
       <c r="T107" s="1" t="str">
         <f aca="false">IF(H107="","",VLOOKUP(H107,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52119,53 +52079,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J108" s="26" t="str">
-        <f aca="true">IF(M108="", IF(O108="","",X108+(INDIRECT("S" &amp; ROW() - 1) - S108)),IF(O108="", "", INDIRECT("S" &amp; ROW() - 1) - S108))</f>
-        <v/>
-      </c>
-      <c r="M108" s="35"/>
-      <c r="N108" s="36" t="str">
-        <f aca="false">IF(M108="", IF(X108=0, "", X108), IF(V108 = "", "", IF(V108/U108 = 0, "", V108/U108)))</f>
-        <v/>
-      </c>
-      <c r="P108" s="1" t="n">
-        <f aca="false">IF(O108 = "-", -W108,I108)</f>
-        <v>0</v>
-      </c>
-      <c r="Q108" s="1" t="n">
-        <f aca="true">IF(O108 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P108)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P108)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R108" s="1" t="n">
-        <f aca="false">IF(O108="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S108" s="1" t="n">
-        <f aca="true">IF(Q108 = 0, INDIRECT("S" &amp; ROW() - 1), Q108)</f>
-        <v>-22</v>
-      </c>
-      <c r="T108" s="1" t="str">
-        <f aca="false">IF(H108="","",VLOOKUP(H108,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v/>
-      </c>
-      <c r="U108" s="1" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
-      </c>
-      <c r="V108" s="1" t="n">
-        <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 0 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),0 *LEN($M108)+1,LEN($M108))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 1 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),1 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 2 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),2 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 3 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),3 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 4 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),4 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 5 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),5 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 6 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),6 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 7 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),7 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 8 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),8 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 9 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),9 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 10 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),10 *LEN($M108)+1,LEN($M108)))))</f>
-        <v>0</v>
-      </c>
-      <c r="W108" s="1" t="n">
-        <f aca="false">IF(V108 = "", "", V108/U108)</f>
-        <v>0</v>
-      </c>
-      <c r="X108" s="1" t="str">
-        <f aca="true">IF(O108="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S108)/1000, 0), 1) * 1000)</f>
-        <v/>
-      </c>
-    </row>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -52181,7 +52095,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:B108">
+  <conditionalFormatting sqref="B2:B107">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>#ref!&lt;&gt;#ref!</formula>
     </cfRule>
@@ -52191,7 +52105,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>SUMIF(J2:J108,"&gt;0")-SUMIF(J2:J108,"&lt;0") &gt; 1</formula>
+      <formula>SUMIF(J2:J107,"&gt;0")-SUMIF(J2:J107,"&lt;0") &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
@@ -52209,19 +52123,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B2:B108" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B2:B107" type="list">
       <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F108" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F107" type="list">
       <formula1>'Форм фактор плавления'!$A$1:$A$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="L1:L108" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="L1:L107" type="list">
       <formula1>Мойки!$A$1:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H45" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H44" type="list">
       <formula1>'Вода SKU'!$A$1:$A$137</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -52243,10 +52157,10 @@
   </sheetPr>
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52348,8 +52262,8 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="n">
-        <f aca="true">IF(O2="-", "-", 1 + MAX(Вода!$A$2:$A$86) + SUM(INDIRECT(ADDRESS(2,COLUMN(R2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R2)))))</f>
-        <v>6</v>
+        <f aca="true">IF(O2="-", "-", 1 + MAX(Вода!$A$2:$A$85) + SUM(INDIRECT(ADDRESS(2,COLUMN(R2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R2)))))</f>
+        <v>5</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>664</v>
@@ -52426,8 +52340,8 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="n">
-        <f aca="true">IF(O3="-", "-", 1 + MAX(Вода!$A$2:$A$86) + SUM(INDIRECT(ADDRESS(2,COLUMN(R3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R3)))))</f>
-        <v>6</v>
+        <f aca="true">IF(O3="-", "-", 1 + MAX(Вода!$A$2:$A$85) + SUM(INDIRECT(ADDRESS(2,COLUMN(R3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R3)))))</f>
+        <v>5</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>664</v>
@@ -52504,7 +52418,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="str">
-        <f aca="true">IF(O4="-", "-", 1 + MAX(Вода!$A$2:$A$86) + SUM(INDIRECT(ADDRESS(2,COLUMN(R4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R4)))))</f>
+        <f aca="true">IF(O4="-", "-", 1 + MAX(Вода!$A$2:$A$85) + SUM(INDIRECT(ADDRESS(2,COLUMN(R4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R4)))))</f>
         <v>-</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -52582,8 +52496,8 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="n">
-        <f aca="true">IF(O5="-", "-", 1 + MAX(Вода!$A$2:$A$86) + SUM(INDIRECT(ADDRESS(2,COLUMN(R5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R5)))))</f>
-        <v>7</v>
+        <f aca="true">IF(O5="-", "-", 1 + MAX(Вода!$A$2:$A$85) + SUM(INDIRECT(ADDRESS(2,COLUMN(R5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R5)))))</f>
+        <v>6</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>664</v>
@@ -52660,8 +52574,8 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="43" t="n">
-        <f aca="true">IF(O6="-", "-", 1 + MAX(Вода!$A$2:$A$86) + SUM(INDIRECT(ADDRESS(2,COLUMN(R6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R6)))))</f>
-        <v>7</v>
+        <f aca="true">IF(O6="-", "-", 1 + MAX(Вода!$A$2:$A$85) + SUM(INDIRECT(ADDRESS(2,COLUMN(R6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R6)))))</f>
+        <v>6</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>664</v>
@@ -52737,49 +52651,49 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="str">
-        <f aca="true">IF(O7="-", "-", 1 + MAX(Вода!$A$2:$A$86) + SUM(INDIRECT(ADDRESS(2,COLUMN(R7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R7)))))</f>
-        <v>-</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="J7" s="26" t="n">
+      <c r="A7" s="43" t="n">
+        <f aca="true">IF(O7="-", "-", 1 + MAX(Вода!$A$2:$A$85) + SUM(INDIRECT(ADDRESS(2,COLUMN(R7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R7)))))</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="C7" s="43" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>699</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="43" t="n">
+        <v>850</v>
+      </c>
+      <c r="J7" s="26" t="str">
         <f aca="true">IF(M7="", IF(O7="","",X7+(INDIRECT("S" &amp; ROW() - 1) - S7)),IF(O7="", "", INDIRECT("S" &amp; ROW() - 1) - S7))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="34"/>
-      <c r="M7" s="37" t="n">
-        <v>8000</v>
-      </c>
-      <c r="N7" s="36" t="n">
+        <v/>
+      </c>
+      <c r="K7" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="36" t="str">
         <f aca="false">IF(M7="", IF(X7=0, "", X7), IF(V7 = "", "", IF(V7/U7 = 0, "", V7/U7)))</f>
-        <v>850</v>
-      </c>
-      <c r="O7" s="34" t="s">
-        <v>694</v>
+        <v/>
       </c>
       <c r="P7" s="1" t="n">
         <f aca="false">IF(O7 = "-", -W7,I7)</f>
-        <v>-850</v>
+        <v>850</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="true">IF(O7 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P7)))), 0)</f>
@@ -52787,7 +52701,7 @@
       </c>
       <c r="R7" s="1" t="n">
         <f aca="false">IF(O7="-",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
         <f aca="true">IF(Q7 = 0, INDIRECT("S" &amp; ROW() - 1), Q7)</f>
@@ -52795,7 +52709,7 @@
       </c>
       <c r="T7" s="1" t="str">
         <f aca="false">IF(H7="","",VLOOKUP(H7,'Соль SKU'!$A$1:$B$150,2,0))</f>
-        <v>-</v>
+        <v>2.7, Альче</v>
       </c>
       <c r="U7" s="1" t="n">
         <f aca="false">8000/850</f>
@@ -52803,77 +52717,77 @@
       </c>
       <c r="V7" s="1" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 0 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),0 *LEN($M7)+1,LEN($M7))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 1 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),1 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 2 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),2 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 3 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),3 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 4 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),4 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 5 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),5 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 6 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),6 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 7 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),7 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 8 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),8 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 9 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),9 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 10 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),10 *LEN($M7)+1,LEN($M7)))))</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1" t="n">
         <f aca="false">IF(V7 = "", "", V7/U7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f aca="true">IF(O7="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S7)/850, 0), 1) * 850)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="34" t="str">
+        <f aca="true">IF(O8="-", "-", 1 + MAX(Вода!$A$2:$A$85) + SUM(INDIRECT(ADDRESS(2,COLUMN(R8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R8)))))</f>
+        <v>-</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="J8" s="26" t="n">
+        <f aca="true">IF(M8="", IF(O8="","",X8+(INDIRECT("S" &amp; ROW() - 1) - S8)),IF(O8="", "", INDIRECT("S" &amp; ROW() - 1) - S8))</f>
+        <v>-850</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="M8" s="37" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N8" s="36" t="n">
+        <f aca="false">IF(M8="", IF(X8=0, "", X8), IF(V8 = "", "", IF(V8/U8 = 0, "", V8/U8)))</f>
         <v>850</v>
       </c>
-      <c r="X7" s="1" t="n">
-        <f aca="true">IF(O7="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S7)/850, 0), 1) * 850)</f>
-        <v>850</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="n">
-        <f aca="true">IF(O8="-", "-", 1 + MAX(Вода!$A$2:$A$86) + SUM(INDIRECT(ADDRESS(2,COLUMN(R8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R8)))))</f>
-        <v>8</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>664</v>
-      </c>
-      <c r="C8" s="43" t="n">
-        <v>850</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>700</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>700</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>699</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="I8" s="43" t="n">
-        <v>850</v>
-      </c>
-      <c r="J8" s="26" t="str">
-        <f aca="true">IF(M8="", IF(O8="","",X8+(INDIRECT("S" &amp; ROW() - 1) - S8)),IF(O8="", "", INDIRECT("S" &amp; ROW() - 1) - S8))</f>
-        <v/>
-      </c>
-      <c r="K8" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36" t="str">
-        <f aca="false">IF(M8="", IF(X8=0, "", X8), IF(V8 = "", "", IF(V8/U8 = 0, "", V8/U8)))</f>
-        <v/>
+      <c r="O8" s="34" t="s">
+        <v>694</v>
       </c>
       <c r="P8" s="1" t="n">
         <f aca="false">IF(O8 = "-", -W8,I8)</f>
-        <v>850</v>
+        <v>-850</v>
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="true">IF(O8 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P8)))), 0)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="R8" s="1" t="n">
         <f aca="false">IF(O8="-",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1" t="n">
         <f aca="true">IF(Q8 = 0, INDIRECT("S" &amp; ROW() - 1), Q8)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T8" s="1" t="str">
         <f aca="false">IF(H8="","",VLOOKUP(H8,'Соль SKU'!$A$1:$B$150,2,0))</f>
-        <v>2.7, Альче</v>
+        <v>-</v>
       </c>
       <c r="U8" s="1" t="n">
         <f aca="false">8000/850</f>
@@ -52881,61 +52795,30 @@
       </c>
       <c r="V8" s="1" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 0 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),0 *LEN($M8)+1,LEN($M8))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 1 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),1 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 2 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),2 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 3 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),3 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 4 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),4 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 5 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),5 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 6 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),6 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 7 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),7 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 8 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),8 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 9 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),9 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 10 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),10 *LEN($M8)+1,LEN($M8)))))</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="W8" s="1" t="n">
         <f aca="false">IF(V8 = "", "", V8/U8)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="1" t="str">
+        <v>850</v>
+      </c>
+      <c r="X8" s="1" t="n">
         <f aca="true">IF(O8="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S8)/850, 0), 1) * 850)</f>
-        <v/>
+        <v>850</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="str">
-        <f aca="true">IF(O9="-", "-", 1 + MAX(Вода!$A$2:$A$86) + SUM(INDIRECT(ADDRESS(2,COLUMN(R9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R9)))))</f>
-        <v>-</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>694</v>
-      </c>
-      <c r="J9" s="26" t="n">
+      <c r="J9" s="26" t="str">
         <f aca="true">IF(M9="", IF(O9="","",X9+(INDIRECT("S" &amp; ROW() - 1) - S9)),IF(O9="", "", INDIRECT("S" &amp; ROW() - 1) - S9))</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="M9" s="37" t="n">
-        <v>8000</v>
-      </c>
-      <c r="N9" s="36" t="n">
+        <v/>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="36" t="str">
         <f aca="false">IF(M9="", IF(X9=0, "", X9), IF(V9 = "", "", IF(V9/U9 = 0, "", V9/U9)))</f>
-        <v>850</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>694</v>
+        <v/>
       </c>
       <c r="P9" s="1" t="n">
         <f aca="false">IF(O9 = "-", -W9,I9)</f>
-        <v>-850</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
         <f aca="true">IF(O9 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P9)))), 0)</f>
@@ -52943,15 +52826,15 @@
       </c>
       <c r="R9" s="1" t="n">
         <f aca="false">IF(O9="-",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
         <f aca="true">IF(Q9 = 0, INDIRECT("S" &amp; ROW() - 1), Q9)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T9" s="1" t="str">
         <f aca="false">IF(H9="","",VLOOKUP(H9,'Соль SKU'!$A$1:$B$150,2,0))</f>
-        <v>-</v>
+        <v/>
       </c>
       <c r="U9" s="1" t="n">
         <f aca="false">8000/850</f>
@@ -52959,15 +52842,15 @@
       </c>
       <c r="V9" s="1" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 0 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),0 *LEN($M9)+1,LEN($M9))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 1 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),1 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 2 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),2 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 3 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),3 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 4 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),4 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 5 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),5 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 6 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),6 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 7 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),7 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 8 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),8 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 9 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),9 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 10 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),10 *LEN($M9)+1,LEN($M9)))))</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1" t="n">
         <f aca="false">IF(V9 = "", "", V9/U9)</f>
-        <v>850</v>
-      </c>
-      <c r="X9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="str">
         <f aca="true">IF(O9="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S9)/850, 0), 1) * 850)</f>
-        <v>850</v>
+        <v/>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -52994,7 +52877,7 @@
       </c>
       <c r="S10" s="1" t="n">
         <f aca="true">IF(Q10 = 0, INDIRECT("S" &amp; ROW() - 1), Q10)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T10" s="1" t="str">
         <f aca="false">IF(H10="","",VLOOKUP(H10,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53041,7 +52924,7 @@
       </c>
       <c r="S11" s="1" t="n">
         <f aca="true">IF(Q11 = 0, INDIRECT("S" &amp; ROW() - 1), Q11)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T11" s="1" t="str">
         <f aca="false">IF(H11="","",VLOOKUP(H11,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53088,7 +52971,7 @@
       </c>
       <c r="S12" s="1" t="n">
         <f aca="true">IF(Q12 = 0, INDIRECT("S" &amp; ROW() - 1), Q12)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T12" s="1" t="str">
         <f aca="false">IF(H12="","",VLOOKUP(H12,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53135,7 +53018,7 @@
       </c>
       <c r="S13" s="1" t="n">
         <f aca="true">IF(Q13 = 0, INDIRECT("S" &amp; ROW() - 1), Q13)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T13" s="1" t="str">
         <f aca="false">IF(H13="","",VLOOKUP(H13,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53182,7 +53065,7 @@
       </c>
       <c r="S14" s="1" t="n">
         <f aca="true">IF(Q14 = 0, INDIRECT("S" &amp; ROW() - 1), Q14)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T14" s="1" t="str">
         <f aca="false">IF(H14="","",VLOOKUP(H14,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53229,7 +53112,7 @@
       </c>
       <c r="S15" s="1" t="n">
         <f aca="true">IF(Q15 = 0, INDIRECT("S" &amp; ROW() - 1), Q15)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T15" s="1" t="str">
         <f aca="false">IF(H15="","",VLOOKUP(H15,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53276,7 +53159,7 @@
       </c>
       <c r="S16" s="1" t="n">
         <f aca="true">IF(Q16 = 0, INDIRECT("S" &amp; ROW() - 1), Q16)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T16" s="1" t="str">
         <f aca="false">IF(H16="","",VLOOKUP(H16,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53323,7 +53206,7 @@
       </c>
       <c r="S17" s="1" t="n">
         <f aca="true">IF(Q17 = 0, INDIRECT("S" &amp; ROW() - 1), Q17)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(H17="","",VLOOKUP(H17,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53370,7 +53253,7 @@
       </c>
       <c r="S18" s="1" t="n">
         <f aca="true">IF(Q18 = 0, INDIRECT("S" &amp; ROW() - 1), Q18)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(H18="","",VLOOKUP(H18,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53417,7 +53300,7 @@
       </c>
       <c r="S19" s="1" t="n">
         <f aca="true">IF(Q19 = 0, INDIRECT("S" &amp; ROW() - 1), Q19)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(H19="","",VLOOKUP(H19,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53464,7 +53347,7 @@
       </c>
       <c r="S20" s="1" t="n">
         <f aca="true">IF(Q20 = 0, INDIRECT("S" &amp; ROW() - 1), Q20)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(H20="","",VLOOKUP(H20,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53511,7 +53394,7 @@
       </c>
       <c r="S21" s="1" t="n">
         <f aca="true">IF(Q21 = 0, INDIRECT("S" &amp; ROW() - 1), Q21)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(H21="","",VLOOKUP(H21,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53558,7 +53441,7 @@
       </c>
       <c r="S22" s="1" t="n">
         <f aca="true">IF(Q22 = 0, INDIRECT("S" &amp; ROW() - 1), Q22)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(H22="","",VLOOKUP(H22,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53605,7 +53488,7 @@
       </c>
       <c r="S23" s="1" t="n">
         <f aca="true">IF(Q23 = 0, INDIRECT("S" &amp; ROW() - 1), Q23)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(H23="","",VLOOKUP(H23,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53652,7 +53535,7 @@
       </c>
       <c r="S24" s="1" t="n">
         <f aca="true">IF(Q24 = 0, INDIRECT("S" &amp; ROW() - 1), Q24)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(H24="","",VLOOKUP(H24,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53699,7 +53582,7 @@
       </c>
       <c r="S25" s="1" t="n">
         <f aca="true">IF(Q25 = 0, INDIRECT("S" &amp; ROW() - 1), Q25)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(H25="","",VLOOKUP(H25,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53727,7 +53610,7 @@
         <f aca="true">IF(M26="", IF(O26="","",X26+(INDIRECT("S" &amp; ROW() - 1) - S26)),IF(O26="", "", INDIRECT("S" &amp; ROW() - 1) - S26))</f>
         <v/>
       </c>
-      <c r="M26" s="35"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="36" t="str">
         <f aca="false">IF(M26="", IF(X26=0, "", X26), IF(V26 = "", "", IF(V26/U26 = 0, "", V26/U26)))</f>
         <v/>
@@ -53746,7 +53629,7 @@
       </c>
       <c r="S26" s="1" t="n">
         <f aca="true">IF(Q26 = 0, INDIRECT("S" &amp; ROW() - 1), Q26)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(H26="","",VLOOKUP(H26,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53774,7 +53657,7 @@
         <f aca="true">IF(M27="", IF(O27="","",X27+(INDIRECT("S" &amp; ROW() - 1) - S27)),IF(O27="", "", INDIRECT("S" &amp; ROW() - 1) - S27))</f>
         <v/>
       </c>
-      <c r="M27" s="36"/>
+      <c r="M27" s="35"/>
       <c r="N27" s="36" t="str">
         <f aca="false">IF(M27="", IF(X27=0, "", X27), IF(V27 = "", "", IF(V27/U27 = 0, "", V27/U27)))</f>
         <v/>
@@ -53793,7 +53676,7 @@
       </c>
       <c r="S27" s="1" t="n">
         <f aca="true">IF(Q27 = 0, INDIRECT("S" &amp; ROW() - 1), Q27)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(H27="","",VLOOKUP(H27,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53840,7 +53723,7 @@
       </c>
       <c r="S28" s="1" t="n">
         <f aca="true">IF(Q28 = 0, INDIRECT("S" &amp; ROW() - 1), Q28)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(H28="","",VLOOKUP(H28,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53887,7 +53770,7 @@
       </c>
       <c r="S29" s="1" t="n">
         <f aca="true">IF(Q29 = 0, INDIRECT("S" &amp; ROW() - 1), Q29)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(H29="","",VLOOKUP(H29,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53934,7 +53817,7 @@
       </c>
       <c r="S30" s="1" t="n">
         <f aca="true">IF(Q30 = 0, INDIRECT("S" &amp; ROW() - 1), Q30)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(H30="","",VLOOKUP(H30,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -53981,7 +53864,7 @@
       </c>
       <c r="S31" s="1" t="n">
         <f aca="true">IF(Q31 = 0, INDIRECT("S" &amp; ROW() - 1), Q31)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T31" s="1" t="str">
         <f aca="false">IF(H31="","",VLOOKUP(H31,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54028,7 +53911,7 @@
       </c>
       <c r="S32" s="1" t="n">
         <f aca="true">IF(Q32 = 0, INDIRECT("S" &amp; ROW() - 1), Q32)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T32" s="1" t="str">
         <f aca="false">IF(H32="","",VLOOKUP(H32,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54075,7 +53958,7 @@
       </c>
       <c r="S33" s="1" t="n">
         <f aca="true">IF(Q33 = 0, INDIRECT("S" &amp; ROW() - 1), Q33)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(H33="","",VLOOKUP(H33,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54122,7 +54005,7 @@
       </c>
       <c r="S34" s="1" t="n">
         <f aca="true">IF(Q34 = 0, INDIRECT("S" &amp; ROW() - 1), Q34)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T34" s="1" t="str">
         <f aca="false">IF(H34="","",VLOOKUP(H34,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54169,7 +54052,7 @@
       </c>
       <c r="S35" s="1" t="n">
         <f aca="true">IF(Q35 = 0, INDIRECT("S" &amp; ROW() - 1), Q35)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(H35="","",VLOOKUP(H35,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54216,7 +54099,7 @@
       </c>
       <c r="S36" s="1" t="n">
         <f aca="true">IF(Q36 = 0, INDIRECT("S" &amp; ROW() - 1), Q36)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(H36="","",VLOOKUP(H36,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54263,7 +54146,7 @@
       </c>
       <c r="S37" s="1" t="n">
         <f aca="true">IF(Q37 = 0, INDIRECT("S" &amp; ROW() - 1), Q37)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T37" s="1" t="str">
         <f aca="false">IF(H37="","",VLOOKUP(H37,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54310,7 +54193,7 @@
       </c>
       <c r="S38" s="1" t="n">
         <f aca="true">IF(Q38 = 0, INDIRECT("S" &amp; ROW() - 1), Q38)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T38" s="1" t="str">
         <f aca="false">IF(H38="","",VLOOKUP(H38,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54357,7 +54240,7 @@
       </c>
       <c r="S39" s="1" t="n">
         <f aca="true">IF(Q39 = 0, INDIRECT("S" &amp; ROW() - 1), Q39)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T39" s="1" t="str">
         <f aca="false">IF(H39="","",VLOOKUP(H39,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54404,7 +54287,7 @@
       </c>
       <c r="S40" s="1" t="n">
         <f aca="true">IF(Q40 = 0, INDIRECT("S" &amp; ROW() - 1), Q40)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T40" s="1" t="str">
         <f aca="false">IF(H40="","",VLOOKUP(H40,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54442,7 +54325,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <f aca="true">IF(O41 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P41)))), 0)</f>
+        <f aca="true">IF(O41="-",SUM(INDIRECT(ADDRESS(2,COLUMN(P41))&amp;":"&amp;ADDRESS(ROW(),COLUMN(P41)))),0)</f>
         <v>0</v>
       </c>
       <c r="R41" s="1" t="n">
@@ -54451,7 +54334,7 @@
       </c>
       <c r="S41" s="1" t="n">
         <f aca="true">IF(Q41 = 0, INDIRECT("S" &amp; ROW() - 1), Q41)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T41" s="1" t="str">
         <f aca="false">IF(H41="","",VLOOKUP(H41,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54498,7 +54381,7 @@
       </c>
       <c r="S42" s="1" t="n">
         <f aca="true">IF(Q42 = 0, INDIRECT("S" &amp; ROW() - 1), Q42)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T42" s="1" t="str">
         <f aca="false">IF(H42="","",VLOOKUP(H42,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54545,7 +54428,7 @@
       </c>
       <c r="S43" s="1" t="n">
         <f aca="true">IF(Q43 = 0, INDIRECT("S" &amp; ROW() - 1), Q43)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T43" s="1" t="str">
         <f aca="false">IF(H43="","",VLOOKUP(H43,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54592,7 +54475,7 @@
       </c>
       <c r="S44" s="1" t="n">
         <f aca="true">IF(Q44 = 0, INDIRECT("S" &amp; ROW() - 1), Q44)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T44" s="1" t="str">
         <f aca="false">IF(H44="","",VLOOKUP(H44,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54639,7 +54522,7 @@
       </c>
       <c r="S45" s="1" t="n">
         <f aca="true">IF(Q45 = 0, INDIRECT("S" &amp; ROW() - 1), Q45)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T45" s="1" t="str">
         <f aca="false">IF(H45="","",VLOOKUP(H45,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54686,7 +54569,7 @@
       </c>
       <c r="S46" s="1" t="n">
         <f aca="true">IF(Q46 = 0, INDIRECT("S" &amp; ROW() - 1), Q46)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T46" s="1" t="str">
         <f aca="false">IF(H46="","",VLOOKUP(H46,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54733,7 +54616,7 @@
       </c>
       <c r="S47" s="1" t="n">
         <f aca="true">IF(Q47 = 0, INDIRECT("S" &amp; ROW() - 1), Q47)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T47" s="1" t="str">
         <f aca="false">IF(H47="","",VLOOKUP(H47,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54780,7 +54663,7 @@
       </c>
       <c r="S48" s="1" t="n">
         <f aca="true">IF(Q48 = 0, INDIRECT("S" &amp; ROW() - 1), Q48)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T48" s="1" t="str">
         <f aca="false">IF(H48="","",VLOOKUP(H48,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54827,7 +54710,7 @@
       </c>
       <c r="S49" s="1" t="n">
         <f aca="true">IF(Q49 = 0, INDIRECT("S" &amp; ROW() - 1), Q49)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T49" s="1" t="str">
         <f aca="false">IF(H49="","",VLOOKUP(H49,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54874,7 +54757,7 @@
       </c>
       <c r="S50" s="1" t="n">
         <f aca="true">IF(Q50 = 0, INDIRECT("S" &amp; ROW() - 1), Q50)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T50" s="1" t="str">
         <f aca="false">IF(H50="","",VLOOKUP(H50,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54921,7 +54804,7 @@
       </c>
       <c r="S51" s="1" t="n">
         <f aca="true">IF(Q51 = 0, INDIRECT("S" &amp; ROW() - 1), Q51)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T51" s="1" t="str">
         <f aca="false">IF(H51="","",VLOOKUP(H51,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -54968,7 +54851,7 @@
       </c>
       <c r="S52" s="1" t="n">
         <f aca="true">IF(Q52 = 0, INDIRECT("S" &amp; ROW() - 1), Q52)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T52" s="1" t="str">
         <f aca="false">IF(H52="","",VLOOKUP(H52,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55015,7 +54898,7 @@
       </c>
       <c r="S53" s="1" t="n">
         <f aca="true">IF(Q53 = 0, INDIRECT("S" &amp; ROW() - 1), Q53)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T53" s="1" t="str">
         <f aca="false">IF(H53="","",VLOOKUP(H53,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55062,7 +54945,7 @@
       </c>
       <c r="S54" s="1" t="n">
         <f aca="true">IF(Q54 = 0, INDIRECT("S" &amp; ROW() - 1), Q54)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T54" s="1" t="str">
         <f aca="false">IF(H54="","",VLOOKUP(H54,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55109,7 +54992,7 @@
       </c>
       <c r="S55" s="1" t="n">
         <f aca="true">IF(Q55 = 0, INDIRECT("S" &amp; ROW() - 1), Q55)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T55" s="1" t="str">
         <f aca="false">IF(H55="","",VLOOKUP(H55,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55156,7 +55039,7 @@
       </c>
       <c r="S56" s="1" t="n">
         <f aca="true">IF(Q56 = 0, INDIRECT("S" &amp; ROW() - 1), Q56)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T56" s="1" t="str">
         <f aca="false">IF(H56="","",VLOOKUP(H56,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55203,7 +55086,7 @@
       </c>
       <c r="S57" s="1" t="n">
         <f aca="true">IF(Q57 = 0, INDIRECT("S" &amp; ROW() - 1), Q57)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T57" s="1" t="str">
         <f aca="false">IF(H57="","",VLOOKUP(H57,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55250,7 +55133,7 @@
       </c>
       <c r="S58" s="1" t="n">
         <f aca="true">IF(Q58 = 0, INDIRECT("S" &amp; ROW() - 1), Q58)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T58" s="1" t="str">
         <f aca="false">IF(H58="","",VLOOKUP(H58,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55297,7 +55180,7 @@
       </c>
       <c r="S59" s="1" t="n">
         <f aca="true">IF(Q59 = 0, INDIRECT("S" &amp; ROW() - 1), Q59)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T59" s="1" t="str">
         <f aca="false">IF(H59="","",VLOOKUP(H59,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55344,7 +55227,7 @@
       </c>
       <c r="S60" s="1" t="n">
         <f aca="true">IF(Q60 = 0, INDIRECT("S" &amp; ROW() - 1), Q60)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T60" s="1" t="str">
         <f aca="false">IF(H60="","",VLOOKUP(H60,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55391,7 +55274,7 @@
       </c>
       <c r="S61" s="1" t="n">
         <f aca="true">IF(Q61 = 0, INDIRECT("S" &amp; ROW() - 1), Q61)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T61" s="1" t="str">
         <f aca="false">IF(H61="","",VLOOKUP(H61,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55438,7 +55321,7 @@
       </c>
       <c r="S62" s="1" t="n">
         <f aca="true">IF(Q62 = 0, INDIRECT("S" &amp; ROW() - 1), Q62)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T62" s="1" t="str">
         <f aca="false">IF(H62="","",VLOOKUP(H62,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55485,7 +55368,7 @@
       </c>
       <c r="S63" s="1" t="n">
         <f aca="true">IF(Q63 = 0, INDIRECT("S" &amp; ROW() - 1), Q63)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T63" s="1" t="str">
         <f aca="false">IF(H63="","",VLOOKUP(H63,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55532,7 +55415,7 @@
       </c>
       <c r="S64" s="1" t="n">
         <f aca="true">IF(Q64 = 0, INDIRECT("S" &amp; ROW() - 1), Q64)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T64" s="1" t="str">
         <f aca="false">IF(H64="","",VLOOKUP(H64,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55579,7 +55462,7 @@
       </c>
       <c r="S65" s="1" t="n">
         <f aca="true">IF(Q65 = 0, INDIRECT("S" &amp; ROW() - 1), Q65)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T65" s="1" t="str">
         <f aca="false">IF(H65="","",VLOOKUP(H65,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55626,7 +55509,7 @@
       </c>
       <c r="S66" s="1" t="n">
         <f aca="true">IF(Q66 = 0, INDIRECT("S" &amp; ROW() - 1), Q66)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T66" s="1" t="str">
         <f aca="false">IF(H66="","",VLOOKUP(H66,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55664,7 +55547,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="1" t="n">
-        <f aca="true">IF(O67="-",SUM(INDIRECT(ADDRESS(2,COLUMN(P67))&amp;":"&amp;ADDRESS(ROW(),COLUMN(P67)))),0)</f>
+        <f aca="true">IF(O67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P67)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R67" s="1" t="n">
@@ -55673,7 +55556,7 @@
       </c>
       <c r="S67" s="1" t="n">
         <f aca="true">IF(Q67 = 0, INDIRECT("S" &amp; ROW() - 1), Q67)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T67" s="1" t="str">
         <f aca="false">IF(H67="","",VLOOKUP(H67,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55720,7 +55603,7 @@
       </c>
       <c r="S68" s="1" t="n">
         <f aca="true">IF(Q68 = 0, INDIRECT("S" &amp; ROW() - 1), Q68)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T68" s="1" t="str">
         <f aca="false">IF(H68="","",VLOOKUP(H68,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55767,7 +55650,7 @@
       </c>
       <c r="S69" s="1" t="n">
         <f aca="true">IF(Q69 = 0, INDIRECT("S" &amp; ROW() - 1), Q69)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T69" s="1" t="str">
         <f aca="false">IF(H69="","",VLOOKUP(H69,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55814,7 +55697,7 @@
       </c>
       <c r="S70" s="1" t="n">
         <f aca="true">IF(Q70 = 0, INDIRECT("S" &amp; ROW() - 1), Q70)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T70" s="1" t="str">
         <f aca="false">IF(H70="","",VLOOKUP(H70,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55861,7 +55744,7 @@
       </c>
       <c r="S71" s="1" t="n">
         <f aca="true">IF(Q71 = 0, INDIRECT("S" &amp; ROW() - 1), Q71)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T71" s="1" t="str">
         <f aca="false">IF(H71="","",VLOOKUP(H71,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55908,7 +55791,7 @@
       </c>
       <c r="S72" s="1" t="n">
         <f aca="true">IF(Q72 = 0, INDIRECT("S" &amp; ROW() - 1), Q72)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T72" s="1" t="str">
         <f aca="false">IF(H72="","",VLOOKUP(H72,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -55955,7 +55838,7 @@
       </c>
       <c r="S73" s="1" t="n">
         <f aca="true">IF(Q73 = 0, INDIRECT("S" &amp; ROW() - 1), Q73)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T73" s="1" t="str">
         <f aca="false">IF(H73="","",VLOOKUP(H73,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56002,7 +55885,7 @@
       </c>
       <c r="S74" s="1" t="n">
         <f aca="true">IF(Q74 = 0, INDIRECT("S" &amp; ROW() - 1), Q74)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T74" s="1" t="str">
         <f aca="false">IF(H74="","",VLOOKUP(H74,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56049,7 +55932,7 @@
       </c>
       <c r="S75" s="1" t="n">
         <f aca="true">IF(Q75 = 0, INDIRECT("S" &amp; ROW() - 1), Q75)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T75" s="1" t="str">
         <f aca="false">IF(H75="","",VLOOKUP(H75,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56096,7 +55979,7 @@
       </c>
       <c r="S76" s="1" t="n">
         <f aca="true">IF(Q76 = 0, INDIRECT("S" &amp; ROW() - 1), Q76)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T76" s="1" t="str">
         <f aca="false">IF(H76="","",VLOOKUP(H76,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56143,7 +56026,7 @@
       </c>
       <c r="S77" s="1" t="n">
         <f aca="true">IF(Q77 = 0, INDIRECT("S" &amp; ROW() - 1), Q77)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T77" s="1" t="str">
         <f aca="false">IF(H77="","",VLOOKUP(H77,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56190,7 +56073,7 @@
       </c>
       <c r="S78" s="1" t="n">
         <f aca="true">IF(Q78 = 0, INDIRECT("S" &amp; ROW() - 1), Q78)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T78" s="1" t="str">
         <f aca="false">IF(H78="","",VLOOKUP(H78,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56237,7 +56120,7 @@
       </c>
       <c r="S79" s="1" t="n">
         <f aca="true">IF(Q79 = 0, INDIRECT("S" &amp; ROW() - 1), Q79)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T79" s="1" t="str">
         <f aca="false">IF(H79="","",VLOOKUP(H79,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56284,7 +56167,7 @@
       </c>
       <c r="S80" s="1" t="n">
         <f aca="true">IF(Q80 = 0, INDIRECT("S" &amp; ROW() - 1), Q80)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T80" s="1" t="str">
         <f aca="false">IF(H80="","",VLOOKUP(H80,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56331,7 +56214,7 @@
       </c>
       <c r="S81" s="1" t="n">
         <f aca="true">IF(Q81 = 0, INDIRECT("S" &amp; ROW() - 1), Q81)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T81" s="1" t="str">
         <f aca="false">IF(H81="","",VLOOKUP(H81,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56378,7 +56261,7 @@
       </c>
       <c r="S82" s="1" t="n">
         <f aca="true">IF(Q82 = 0, INDIRECT("S" &amp; ROW() - 1), Q82)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T82" s="1" t="str">
         <f aca="false">IF(H82="","",VLOOKUP(H82,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56425,7 +56308,7 @@
       </c>
       <c r="S83" s="1" t="n">
         <f aca="true">IF(Q83 = 0, INDIRECT("S" &amp; ROW() - 1), Q83)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T83" s="1" t="str">
         <f aca="false">IF(H83="","",VLOOKUP(H83,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56472,7 +56355,7 @@
       </c>
       <c r="S84" s="1" t="n">
         <f aca="true">IF(Q84 = 0, INDIRECT("S" &amp; ROW() - 1), Q84)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T84" s="1" t="str">
         <f aca="false">IF(H84="","",VLOOKUP(H84,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56519,7 +56402,7 @@
       </c>
       <c r="S85" s="1" t="n">
         <f aca="true">IF(Q85 = 0, INDIRECT("S" &amp; ROW() - 1), Q85)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T85" s="1" t="str">
         <f aca="false">IF(H85="","",VLOOKUP(H85,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56566,7 +56449,7 @@
       </c>
       <c r="S86" s="1" t="n">
         <f aca="true">IF(Q86 = 0, INDIRECT("S" &amp; ROW() - 1), Q86)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T86" s="1" t="str">
         <f aca="false">IF(H86="","",VLOOKUP(H86,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56613,7 +56496,7 @@
       </c>
       <c r="S87" s="1" t="n">
         <f aca="true">IF(Q87 = 0, INDIRECT("S" &amp; ROW() - 1), Q87)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T87" s="1" t="str">
         <f aca="false">IF(H87="","",VLOOKUP(H87,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56660,7 +56543,7 @@
       </c>
       <c r="S88" s="1" t="n">
         <f aca="true">IF(Q88 = 0, INDIRECT("S" &amp; ROW() - 1), Q88)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T88" s="1" t="str">
         <f aca="false">IF(H88="","",VLOOKUP(H88,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56707,7 +56590,7 @@
       </c>
       <c r="S89" s="1" t="n">
         <f aca="true">IF(Q89 = 0, INDIRECT("S" &amp; ROW() - 1), Q89)</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T89" s="1" t="str">
         <f aca="false">IF(H89="","",VLOOKUP(H89,'Соль SKU'!$A$1:$B$150,2,0))</f>
@@ -56730,53 +56613,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J90" s="26" t="str">
-        <f aca="true">IF(M90="", IF(O90="","",X90+(INDIRECT("S" &amp; ROW() - 1) - S90)),IF(O90="", "", INDIRECT("S" &amp; ROW() - 1) - S90))</f>
-        <v/>
-      </c>
-      <c r="M90" s="35"/>
-      <c r="N90" s="36" t="str">
-        <f aca="false">IF(M90="", IF(X90=0, "", X90), IF(V90 = "", "", IF(V90/U90 = 0, "", V90/U90)))</f>
-        <v/>
-      </c>
-      <c r="P90" s="1" t="n">
-        <f aca="false">IF(O90 = "-", -W90,I90)</f>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="1" t="n">
-        <f aca="true">IF(O90 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P90)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P90)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R90" s="1" t="n">
-        <f aca="false">IF(O90="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S90" s="1" t="n">
-        <f aca="true">IF(Q90 = 0, INDIRECT("S" &amp; ROW() - 1), Q90)</f>
-        <v>0</v>
-      </c>
-      <c r="T90" s="1" t="str">
-        <f aca="false">IF(H90="","",VLOOKUP(H90,'Соль SKU'!$A$1:$B$150,2,0))</f>
-        <v/>
-      </c>
-      <c r="U90" s="1" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
-      </c>
-      <c r="V90" s="1" t="n">
-        <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 0 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),0 *LEN($M90)+1,LEN($M90))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 1 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),1 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 2 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),2 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 3 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),3 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 4 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),4 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 5 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),5 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 6 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),6 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 7 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),7 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 8 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),8 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 9 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),9 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 10 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),10 *LEN($M90)+1,LEN($M90)))))</f>
-        <v>0</v>
-      </c>
-      <c r="W90" s="1" t="n">
-        <f aca="false">IF(V90 = "", "", V90/U90)</f>
-        <v>0</v>
-      </c>
-      <c r="X90" s="1" t="str">
-        <f aca="true">IF(O90="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S90)/850, 0), 1) * 850)</f>
-        <v/>
-      </c>
-    </row>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -56810,14 +56647,14 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:B90">
+  <conditionalFormatting sqref="B2:B89">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B2&lt;&gt;$T2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>SUMIF(J2:J90,"&gt;0")-SUMIF(J2:J90,"&lt;0") &gt; 1</formula>
+      <formula>SUMIF(J2:J89,"&gt;0")-SUMIF(J2:J89,"&lt;0") &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
@@ -56835,19 +56672,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B2:B90" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B2:B89" type="list">
       <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F90" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F89" type="list">
       <formula1>'Форм фактор плавления'!$A$1:$A$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="L1:L90" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="L1:L89" type="list">
       <formula1>Мойки!$A$1:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H90" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H89" type="list">
       <formula1>'Соль SKU'!$A$1:$A$137</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -56911,7 +56748,7 @@
   </sheetPr>
   <dimension ref="A2:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
